--- a/project.xlsx
+++ b/project.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Mayabunder station" sheetId="2" r:id="rId1"/>
     <sheet name="average" sheetId="3" r:id="rId2"/>
-    <sheet name="manually gathered data " sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="manually gathered data " sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -255,7 +256,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mmm"/>
+    <numFmt numFmtId="164" formatCode="mmm"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -631,18 +632,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -662,7 +657,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -693,6 +688,18 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -720,25 +727,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1535,11 +1530,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381894000"/>
-        <c:axId val="381894392"/>
+        <c:axId val="201143992"/>
+        <c:axId val="201399816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381894000"/>
+        <c:axId val="201143992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381894392"/>
+        <c:crossAx val="201399816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381894392"/>
+        <c:axId val="201399816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381894000"/>
+        <c:crossAx val="201143992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2325,6 +2320,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="904875"/>
+          <a:ext cx="10058400" cy="5997884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2629,43 +2673,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="32"/>
-    <col min="2" max="2" width="18" style="32" customWidth="1"/>
-    <col min="3" max="16384" width="14.7109375" style="32"/>
+    <col min="1" max="1" width="14.7109375" style="30"/>
+    <col min="2" max="2" width="18" style="30" customWidth="1"/>
+    <col min="3" max="16384" width="14.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
     </row>
     <row r="7" spans="2:15" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -2674,643 +2718,643 @@
     </row>
     <row r="8" spans="2:15" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="31">
         <v>2011</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="31">
         <v>2012</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>2013</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="31">
         <v>2014</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="31">
         <v>2015</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="31">
         <v>2016</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="31">
         <v>2017</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="31">
         <v>2018</v>
       </c>
-      <c r="K9" s="33">
+      <c r="K9" s="31">
         <v>2019</v>
       </c>
-      <c r="L9" s="33">
+      <c r="L9" s="31">
         <v>2020</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="31">
         <v>2021</v>
       </c>
-      <c r="N9" s="33">
+      <c r="N9" s="31">
         <v>2022</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>189</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>2</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="33">
         <v>10</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="33">
         <v>151.6</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="33">
         <v>15</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="33">
         <v>41.7</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>211.8</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>116</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10" s="33">
         <v>0</v>
       </c>
-      <c r="M10" s="35">
+      <c r="M10" s="33">
         <v>5</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <v>24.6</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="32">
         <f>SUM(C10:N10)</f>
         <v>766.7</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>14</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>1.2</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="33">
         <v>3</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="33">
         <v>0</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="33">
         <v>0</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>0</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11" s="33">
         <v>0</v>
       </c>
-      <c r="M11" s="35">
+      <c r="M11" s="33">
         <v>14</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <v>86.8</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="32">
         <f t="shared" ref="O11:O21" si="0">SUM(C11:N11)</f>
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>302</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>0</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="33">
         <v>2.8</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="33">
         <v>6</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="33">
         <v>0</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="33">
         <v>0</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>38.200000000000003</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>0</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12" s="33">
         <v>0</v>
       </c>
-      <c r="M12" s="35">
+      <c r="M12" s="33">
         <v>0.6</v>
       </c>
-      <c r="N12" s="35">
+      <c r="N12" s="33">
         <v>68</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="32">
         <f t="shared" si="0"/>
         <v>417.6</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>44</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>54</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="33">
         <v>89</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>7</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="33">
         <v>99.6</v>
       </c>
-      <c r="H13" s="35">
+      <c r="H13" s="33">
         <v>0</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="33">
         <v>93.2</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>66.8</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>11.8</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13" s="33">
         <v>18.3</v>
       </c>
-      <c r="M13" s="35">
+      <c r="M13" s="33">
         <v>78.099999999999994</v>
       </c>
-      <c r="N13" s="35">
+      <c r="N13" s="33">
         <v>14.4</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="32">
         <f t="shared" si="0"/>
         <v>576.20000000000005</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>444</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>604</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="33">
         <v>871.9</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>92</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="33">
         <v>369.3</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="33">
         <v>249.4</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="33">
         <v>260.39999999999998</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>230.3</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>156</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14" s="33">
         <v>88</v>
       </c>
-      <c r="M14" s="35">
+      <c r="M14" s="33">
         <v>310.10000000000002</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="35">
         <v>633</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="32">
         <f t="shared" si="0"/>
         <v>4308.4000000000005</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>569</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>911</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="35">
         <v>1219.5</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="33">
         <v>548.4</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="33">
         <v>313</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="33">
         <v>369.6</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="33">
         <v>394.6</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>375.2</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="35">
         <v>870.5</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="33">
         <v>462.4</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="33">
         <v>345.4</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="33">
         <v>154.30000000000001</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="32">
         <f t="shared" si="0"/>
         <v>6532.9</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>819</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>549</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="33">
         <v>741</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="35">
         <v>704.7</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="33">
         <v>365</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="33">
         <v>384.2</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="35">
         <v>508.3</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>407.6</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>241</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16" s="33">
         <v>319.39999999999998</v>
       </c>
-      <c r="M16" s="35">
+      <c r="M16" s="33">
         <v>413.7</v>
       </c>
-      <c r="N16" s="35">
+      <c r="N16" s="33">
         <v>572</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="32">
         <f t="shared" si="0"/>
         <v>6024.9</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="33">
         <v>919</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>713</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="33">
         <v>600.20000000000005</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="33">
         <v>462.3</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="35">
         <v>766.6</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="33">
         <v>257.60000000000002</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="33">
         <v>390.4</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>651.4</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>818.5</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="33">
         <v>333.3</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="33">
         <v>593.20000000000005</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="33">
         <v>505.2</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="32">
         <f t="shared" si="0"/>
         <v>7010.6999999999989</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="35">
         <v>1481</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="35">
         <v>1358</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="33">
         <v>699.6</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="33">
         <v>386.8</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="33">
         <v>544.6</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="35">
         <v>551.6</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="33">
         <v>324.3</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="35">
         <v>737.2</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>620</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="33">
         <v>472.9</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="35">
         <v>902.6</v>
       </c>
-      <c r="N18" s="35">
+      <c r="N18" s="33">
         <v>507.4</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="36">
         <f t="shared" si="0"/>
         <v>8586</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>208</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>356.2</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="33">
         <v>941.2</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="33">
         <v>637.1</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="33">
         <v>206.1</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="33">
         <v>283.10000000000002</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="33">
         <v>257.89999999999998</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>205.5</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>71.7</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="35">
         <v>565</v>
       </c>
-      <c r="M19" s="35">
+      <c r="M19" s="33">
         <v>472</v>
       </c>
-      <c r="N19" s="35">
+      <c r="N19" s="33">
         <v>237.6</v>
       </c>
-      <c r="O19" s="34">
+      <c r="O19" s="32">
         <f t="shared" si="0"/>
         <v>4441.3999999999996</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>112</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>463</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="33">
         <v>715.7</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="33">
         <v>184.2</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="33">
         <v>85.5</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="33">
         <v>150.4</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>110.1</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>209.8</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>65.8</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="33">
         <v>57</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="33">
         <v>232.7</v>
       </c>
-      <c r="N20" s="35">
+      <c r="N20" s="33">
         <v>213.6</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="32">
         <f t="shared" si="0"/>
         <v>2599.7999999999997</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>269.3</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>97.6</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="33">
         <v>44.1</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="33">
         <v>16.100000000000001</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="33">
         <v>147.80000000000001</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="33">
         <v>378.2</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="33">
         <v>166.6</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>229.2</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>2.4</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="33">
         <v>28.8</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="33">
         <v>90</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="33">
         <v>78</v>
       </c>
-      <c r="O21" s="34">
+      <c r="O21" s="32">
         <f t="shared" si="0"/>
         <v>1548.1000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="37">
         <v>5361.3</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>5121.8</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="38">
         <v>5935</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="37">
         <v>3039.8</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="37">
         <v>3058.1</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="37">
         <v>2639.1</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="37">
         <v>2547.5</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="37">
         <v>3363</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="37">
         <v>2973.7</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="37">
         <v>2345.1</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="37">
         <v>3457.4</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="37">
         <v>3094</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="41"/>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3336,7 +3380,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3684,9 +3728,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G2:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G56" sqref="G56:S62"/>
     </sheetView>
   </sheetViews>
@@ -3703,36 +3762,36 @@
   <sheetData>
     <row r="2" spans="10:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="4" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J5" s="13"/>
-      <c r="K5" s="9" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="10:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="53"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="52" t="s">
+      <c r="M6" s="41" t="s">
         <v>48</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -3740,7 +3799,7 @@
       </c>
     </row>
     <row r="7" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="5">
@@ -3749,12 +3808,12 @@
       <c r="L7" s="5">
         <v>23</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="16">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="5">
@@ -3763,12 +3822,12 @@
       <c r="L8" s="5">
         <v>4</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="5">
@@ -3777,12 +3836,12 @@
       <c r="L9" s="5">
         <v>12</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>38</v>
       </c>
       <c r="K10" s="5">
@@ -3791,12 +3850,12 @@
       <c r="L10" s="5">
         <v>17</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="5">
@@ -3805,12 +3864,12 @@
       <c r="L11" s="5">
         <v>127</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="16">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="5">
@@ -3819,12 +3878,12 @@
       <c r="L12" s="5">
         <v>192</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="16">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="5">
@@ -3833,12 +3892,12 @@
       <c r="L13" s="5">
         <v>177</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="16">
         <v>81</v>
       </c>
     </row>
     <row r="14" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="5">
@@ -3847,12 +3906,12 @@
       <c r="L14" s="5">
         <v>206</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="16">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="5">
@@ -3861,12 +3920,12 @@
       <c r="L15" s="5">
         <v>252</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="16">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="5">
@@ -3875,12 +3934,12 @@
       <c r="L16" s="5">
         <v>130</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="16">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K17" s="5">
@@ -3889,31 +3948,31 @@
       <c r="L17" s="5">
         <v>76</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="16">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="18">
         <v>114</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="18">
         <v>45</v>
       </c>
-      <c r="M18" s="21">
+      <c r="M18" s="19">
         <v>21</v>
       </c>
     </row>
     <row r="47" spans="7:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="T47">
         <f>MONTH(H49)</f>
         <v>1</v>
@@ -3921,314 +3980,314 @@
     </row>
     <row r="48" spans="7:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G49" s="25"/>
-      <c r="H49" s="28">
+      <c r="G49" s="23"/>
+      <c r="H49" s="26">
         <v>45292</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="26">
         <v>45323</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="26">
         <v>45352</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="26">
         <v>45383</v>
       </c>
-      <c r="L49" s="28">
+      <c r="L49" s="26">
         <v>45413</v>
       </c>
-      <c r="M49" s="28">
+      <c r="M49" s="26">
         <v>45444</v>
       </c>
-      <c r="N49" s="28">
+      <c r="N49" s="26">
         <v>45474</v>
       </c>
-      <c r="O49" s="28">
+      <c r="O49" s="26">
         <v>45505</v>
       </c>
-      <c r="P49" s="28">
+      <c r="P49" s="26">
         <v>45536</v>
       </c>
-      <c r="Q49" s="28">
+      <c r="Q49" s="26">
         <v>45566</v>
       </c>
-      <c r="R49" s="28">
+      <c r="R49" s="26">
         <v>45597</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="26">
         <v>45627</v>
       </c>
     </row>
     <row r="50" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H50" s="20">
         <f xml:space="preserve"> ROUND(0.0088*POWER(MONTH(H$49),6) - 0.244*POWER(MONTH(H$49),5) + 2.5299*POWER(MONTH(H$49),4) - 17.662*POWER(MONTH(H$49),3) + 112.22*POWER(MONTH(H$49),2) - 314.4*POWER(MONTH(H$49),1) + 279.5,0)</f>
         <v>62</v>
       </c>
-      <c r="I50" s="22">
-        <f t="shared" ref="I50:S52" si="0" xml:space="preserve"> ROUND(0.0088*POWER(MONTH(I$49),6) - 0.244*POWER(MONTH(I$49),5) + 2.5299*POWER(MONTH(I$49),4) - 17.662*POWER(MONTH(I$49),3) + 112.22*POWER(MONTH(I$49),2) - 314.4*POWER(MONTH(I$49),1) + 279.5,0)</f>
+      <c r="I50" s="20">
+        <f t="shared" ref="I50:S50" si="0" xml:space="preserve"> ROUND(0.0088*POWER(MONTH(I$49),6) - 0.244*POWER(MONTH(I$49),5) + 2.5299*POWER(MONTH(I$49),4) - 17.662*POWER(MONTH(I$49),3) + 112.22*POWER(MONTH(I$49),2) - 314.4*POWER(MONTH(I$49),1) + 279.5,0)</f>
         <v>-8</v>
       </c>
-      <c r="J50" s="22">
+      <c r="J50" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K50" s="22">
+      <c r="K50" s="20">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="20">
         <f t="shared" si="0"/>
         <v>261</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="20">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="N50" s="22">
+      <c r="N50" s="20">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="24">
         <f t="shared" si="0"/>
         <v>577</v>
       </c>
-      <c r="P50" s="22">
+      <c r="P50" s="20">
         <f t="shared" si="0"/>
         <v>532</v>
       </c>
-      <c r="Q50" s="22">
+      <c r="Q50" s="20">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="20">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="S50" s="22">
+      <c r="S50" s="20">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
     </row>
     <row r="51" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G51" s="29" t="s">
+      <c r="G51" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="22">
+      <c r="H51" s="20">
         <f xml:space="preserve"> ROUND(0.0035*POWER(MONTH(H$49),6) - 0.0956*POWER(MONTH(H$49),5) + 0.9903*POWER(MONTH(H$49),4) - 6.9789*POWER(MONTH(H$49),3) + 44.901*POWER(MONTH(H$49),2) - 126.6*POWER(MONTH(H$49),1) + 113.2,0)</f>
         <v>25</v>
       </c>
-      <c r="I51" s="22">
+      <c r="I51" s="20">
         <f t="shared" ref="I51:S51" si="1" xml:space="preserve"> ROUND(0.0035*POWER(MONTH(I$49),6) - 0.0956*POWER(MONTH(I$49),5) + 0.9903*POWER(MONTH(I$49),4) - 6.9789*POWER(MONTH(I$49),3) + 44.901*POWER(MONTH(I$49),2) - 126.6*POWER(MONTH(I$49),1) + 113.2,0)</f>
         <v>-3</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K51" s="22">
+      <c r="K51" s="20">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="20">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="20">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="N51" s="22">
+      <c r="N51" s="20">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="O51" s="26">
+      <c r="O51" s="24">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="P51" s="22">
+      <c r="P51" s="20">
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="Q51" s="22">
+      <c r="Q51" s="20">
         <f t="shared" si="1"/>
         <v>201</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="20">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="S51" s="22">
+      <c r="S51" s="20">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G52" s="29" t="s">
+      <c r="G52" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H52" s="20">
         <f xml:space="preserve"> ROUND(0.0015*POWER(MONTH(H$49),6) - 0.0413*POWER(MONTH(H$49),5) + 0.4145*POWER(MONTH(H$49),4) - 2.8682*POWER(MONTH(H$49),3) + 19.026*POWER(MONTH(H$49),2) - 54.355*POWER(MONTH(H$49),1) +48.917,0)</f>
         <v>11</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="20">
         <f t="shared" ref="I52:S52" si="2" xml:space="preserve"> ROUND(0.0015*POWER(MONTH(I$49),6) - 0.0413*POWER(MONTH(I$49),5) + 0.4145*POWER(MONTH(I$49),4) - 2.8682*POWER(MONTH(I$49),3) + 19.026*POWER(MONTH(I$49),2) - 54.355*POWER(MONTH(I$49),1) +48.917,0)</f>
         <v>-1</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="20">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="20">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="20">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="20">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="N52" s="22">
+      <c r="N52" s="20">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="24">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="P52" s="22">
+      <c r="P52" s="20">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="Q52" s="22">
+      <c r="Q52" s="20">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="20">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="S52" s="22">
+      <c r="S52" s="20">
         <f t="shared" si="2"/>
         <v>-23</v>
       </c>
     </row>
     <row r="55" spans="7:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G55" s="27" t="s">
+      <c r="G55" s="25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="56" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="43" t="s">
+      <c r="G56" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="H56" s="44"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="44"/>
-      <c r="M56" s="44"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
-      <c r="S56" s="45"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="47"/>
     </row>
     <row r="57" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="47"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="47"/>
-      <c r="O57" s="47"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="47"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="49"/>
+      <c r="S57" s="50"/>
     </row>
     <row r="58" spans="7:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="46"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="47"/>
-      <c r="K58" s="47"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="47"/>
-      <c r="O58" s="47"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="49"/>
+      <c r="I58" s="49"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="49"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="49"/>
+      <c r="S58" s="50"/>
     </row>
     <row r="59" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G59" s="46"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="49"/>
+      <c r="J59" s="49"/>
+      <c r="K59" s="49"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="49"/>
+      <c r="S59" s="50"/>
     </row>
     <row r="60" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G60" s="46"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="49"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="49"/>
+      <c r="S60" s="50"/>
     </row>
     <row r="61" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G61" s="46"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
+      <c r="Q61" s="49"/>
+      <c r="R61" s="49"/>
+      <c r="S61" s="50"/>
     </row>
     <row r="62" spans="7:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="49"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="50"/>
-      <c r="O62" s="50"/>
-      <c r="P62" s="50"/>
-      <c r="Q62" s="50"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
+      <c r="R62" s="52"/>
+      <c r="S62" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
